--- a/Document/SQL/ERDiagram.xlsx
+++ b/Document/SQL/ERDiagram.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuan vinh\Documents\GitHub\ISDProject\Document\SQL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanvinh\Documents\GitHub\ISDProject\Document\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -65,7 +65,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -86,23 +86,23 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>4</xdr:col>
+          <xdr:col>3</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>3</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>26</xdr:col>
-          <xdr:colOff>333375</xdr:colOff>
-          <xdr:row>97</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:col>22</xdr:col>
+          <xdr:colOff>533400</xdr:colOff>
+          <xdr:row>121</xdr:row>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
+                  <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -415,13 +415,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -430,27 +430,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId3">
+        <oleObject progId="Visio.Drawing.15" shapeId="1027" r:id="rId3">
           <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>26</xdr:col>
-                <xdr:colOff>333375</xdr:colOff>
-                <xdr:row>97</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>22</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>121</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="1026" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="1027" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>

--- a/Document/SQL/ERDiagram.xlsx
+++ b/Document/SQL/ERDiagram.xlsx
@@ -86,23 +86,23 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>547688</xdr:colOff>
+          <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>22</xdr:col>
-          <xdr:colOff>533400</xdr:colOff>
-          <xdr:row>121</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:col>24</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>117</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
+                  <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -415,8 +415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -430,27 +430,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="1027" r:id="rId3">
+        <oleObject progId="Visio.Drawing.15" shapeId="1029" r:id="rId3">
           <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>10</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>22</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>121</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
+                <xdr:row>117</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="1027" r:id="rId3"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="1029" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
